--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_24</t>
+          <t>model_15_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9991947900857732</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989369240209164</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9992609662429012</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995238447158334</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9997208475657408</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0007516281103004702</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009923347628321972</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001003043071800007</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0005650579818585231</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0003326811445192619</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003110125852879367</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02741583685209099</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N2" t="n">
-        <v>1.002147226437938</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02858298578549055</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P2" t="n">
-        <v>80.38653778102339</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.609440001674</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_23</t>
+          <t>model_15_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9991791325558486</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989266264608221</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999248198861633</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999517301265943</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9997168626807159</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0007662437271989514</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001001947083169551</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001020371418716647</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0005728231557680923</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0003374301488198786</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003140133548448428</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02768110776683172</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002188979851071</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02885954983225829</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P3" t="n">
-        <v>80.34802051422176</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q3" t="n">
-        <v>120.5709227348724</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_22</t>
+          <t>model_15_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9991631577682708</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989160597539501</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9992351699366719</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999510607827536</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997127882258785</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000781155490190665</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00101181064020974</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001038054742096219</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0005807663224696695</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003422858983396456</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003170443094755984</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02794915902474822</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N4" t="n">
-        <v>1.002231579284611</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02913901258716689</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P4" t="n">
-        <v>80.30947267357476</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q4" t="n">
-        <v>120.5323748942254</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_21</t>
+          <t>model_15_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9991468547822822</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989052180723749</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9992219390929465</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995037405456177</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999708615719431</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0007963736119926469</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001021930874065375</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001056012116851139</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0005889157909111469</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003472585012981303</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003201055757997108</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02822009234557263</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N5" t="n">
-        <v>1.002275053913914</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02942148010036809</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P5" t="n">
-        <v>80.27088424087175</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.4937864615224</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_20</t>
+          <t>model_15_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9991302137286475</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9988940951392612</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9992084136886908</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994966964352501</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999704338399944</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0008119073051028141</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001032313643886709</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001074369279702934</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0005972751033470141</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0003523560156586538</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003231984582644724</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02849398717453937</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00231943005694</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0297070351992444</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P6" t="n">
-        <v>80.23224876119248</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q6" t="n">
-        <v>120.4551509818431</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_19</t>
+          <t>model_15_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9991132317325956</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9988826843746147</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9991946083440493</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9994895014957876</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9996999700445759</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0008277592529938052</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001042965091809542</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001093106387667918</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0006058134060970277</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0003575620224319098</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003263228447677265</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02877080556734214</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002364715379745</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02999563832412185</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P7" t="n">
-        <v>80.19357640622192</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q7" t="n">
-        <v>120.4164786268725</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_18</t>
+          <t>model_15_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9990959069525764</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9988709779871834</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9991805522944008</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994821379560199</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9996955034700794</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0008439311746717211</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001053892490625653</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001112183761443152</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0006145517884249283</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0003628850822846217</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003294768706058433</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02905049353576839</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N8" t="n">
-        <v>1.002410914793129</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03028723318839792</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P8" t="n">
-        <v>80.15487922658181</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.3777814472324</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_17</t>
+          <t>model_15_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9990782080589093</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9988589646364945</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9991661871398773</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994746018284512</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9996909333656966</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0008604523150183292</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001065106426168551</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000113168066342066</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000623494982329661</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0003683315243358635</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003326671055128061</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02933346749053595</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002458111842908</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03058225393025677</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P9" t="n">
-        <v>80.11610471856601</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.3390069392166</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_16</t>
+          <t>model_15_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9990601585939082</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9988466449271619</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9991515576936411</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994668778906338</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996862547042089</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0008773006983168859</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001076606334057817</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000115153627157195</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006326610524336628</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000373907339795429</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003358876063301897</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02961926228515636</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N10" t="n">
-        <v>1.002506243749578</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03088021560096096</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P10" t="n">
-        <v>80.07732150569223</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.3002237263428</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_15</t>
+          <t>model_15_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9990417323793358</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9988340106143327</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9991366450672666</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9994589881084643</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9996814773465125</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0008945007608028632</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001088399910501564</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001171776221944292</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0006420239315998513</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0003796007768971403</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003391415683400635</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02990820557644445</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N11" t="n">
-        <v>1.002555380321771</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03118145980635426</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P11" t="n">
-        <v>80.03848960896327</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.2613918296139</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_14</t>
+          <t>model_15_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9990229282137577</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9988210508784272</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9991214102948759</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9994509164085525</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9996765910711083</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0009120536239625551</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001100497255102746</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001192453400422673</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0006516026942723479</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0003854240171573076</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003424286372567918</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03020022556145161</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N12" t="n">
-        <v>1.002605524763313</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03148591168668786</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P12" t="n">
-        <v>79.99962354282786</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q12" t="n">
-        <v>120.2225257634785</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_13</t>
+          <t>model_15_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9990037359326944</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9988077635423426</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9991058607063478</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9994426325866144</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9996715812571684</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0009299687758913439</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001112900400091126</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000121355785863267</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006614331841611305</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003913944850121987</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003457490741413968</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03049538942022784</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N13" t="n">
-        <v>1.002656704179482</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03179364128200562</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P13" t="n">
-        <v>79.96071909338197</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.1836213140326</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9989841537496051</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9987941393536826</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9990900252780979</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9994341421499214</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9996664522966691</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0009482478842467376</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001125617982172477</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001235050268745804</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0006715088657346465</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003975069463046135</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003491026899681425</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03079363382660023</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N14" t="n">
-        <v>1.002708923334386</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03210458257020831</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P14" t="n">
-        <v>79.92178921723318</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.1446914378838</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_11</t>
+          <t>model_15_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9989641677339347</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C15" t="n">
-        <v>0.998780170999287</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9990738962112379</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9994254904490258</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999661226324807</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0009669039525903807</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001138656827860817</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001256941215692539</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0006817759210634976</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0004037350213163758</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003524908417444155</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03109507923434801</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N15" t="n">
-        <v>1.002762219376174</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03241886113304194</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P15" t="n">
-        <v>79.88282278516652</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.1057250058171</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_10</t>
+          <t>model_15_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9989437638564839</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9987658486022004</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9990574163237987</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9994166006912713</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9996558618516943</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0009859500765640522</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001152026156860588</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001279308308888327</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0006923254807200056</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0004101281558044191</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003559141066727659</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03139984198310641</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002816629716043</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03273659826296085</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P16" t="n">
-        <v>79.84380967386295</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.0667118945136</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_9</t>
+          <t>model_15_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9989229377728754</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9987511657515588</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9990405990774565</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9994075150223778</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9996503806275303</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001005390311453116</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001165731953431946</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001302133277664554</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0007031075299788869</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0004166604288726711</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003593736766069375</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03170789036585557</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N17" t="n">
-        <v>1.002872165938999</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0330577609031117</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P17" t="n">
-        <v>79.80475888652393</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.0276611071746</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_8</t>
+          <t>model_15_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9989016914956498</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9987361133353398</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9990234763643017</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9993982121937028</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9996447738889924</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001025222778639428</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001179782723247499</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001325372836934183</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0007141472848055455</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0004233422842494819</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003628660492292781</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03201910021595591</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N18" t="n">
-        <v>1.002928822678267</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03338221960082401</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P18" t="n">
-        <v>79.76569068998739</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.988592910638</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_7</t>
+          <t>model_15_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9988800065791137</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9987206877033946</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9990059852854193</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9993886892935345</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9996390366047495</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001045464696368086</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001194181873561467</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001349112355356449</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0007254482005560913</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0004301797180458681</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003663954244008229</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03233364650589361</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N19" t="n">
-        <v>1.002986649122364</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03371015677752494</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P19" t="n">
-        <v>79.72658761377794</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q19" t="n">
-        <v>119.9494898344286</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_6</t>
+          <t>model_15_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9988578807501216</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9987048775011588</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9989881937724325</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9993789285327642</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9996331637861143</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001066118186520531</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001208940003360897</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001373259633700333</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0007370313877340701</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0004371786755520517</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003699597880438342</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03265146530434019</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N20" t="n">
-        <v>1.003045651333009</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O20" t="n">
-        <v>0.034041505780197</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P20" t="n">
-        <v>79.68746218045558</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q20" t="n">
-        <v>119.9103644011062</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_5</t>
+          <t>model_15_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9988352895138749</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9986886744401285</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D21" t="n">
-        <v>0.998969997244562</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9993689143137973</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996271417121847</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00108720611391622</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00122406484960045</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001397956612743606</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0007489153561526809</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0004443555087135208</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003735620752888752</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03297280870529867</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N21" t="n">
-        <v>1.003105894629667</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03437652943500683</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P21" t="n">
-        <v>79.64828814319981</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.8711903638504</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_4</t>
+          <t>model_15_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9988122371810616</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9986720689988746</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9989514734756214</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999358701277137</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9996210020162158</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001108724454716897</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001239565300116318</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001423097735082087</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000761035263409326</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0004516725184587673</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003772008364687289</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0332975142423109</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N22" t="n">
-        <v>1.003167367517169</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03471505835896279</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P22" t="n">
-        <v>79.60909012864018</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q22" t="n">
-        <v>119.8319923492908</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_3</t>
+          <t>model_15_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9987887146518017</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C23" t="n">
-        <v>0.998655042745735</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9989325363820811</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9993482401760047</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9996147152772205</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001130681703261257</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001255458560056072</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001448799836363809</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0007734495511227226</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0004591647673795517</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003808752366101824</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03362561082361564</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N23" t="n">
-        <v>1.003230094261862</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03505712269098723</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P23" t="n">
-        <v>79.56986910186818</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q23" t="n">
-        <v>119.7927713225188</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_2</t>
+          <t>model_15_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9987647022218898</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9986376082331724</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9989132493350843</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9993375434414719</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9996082912929505</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001153096252560226</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001271732912246584</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001474976907004858</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0007861434672222136</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0004668205789613497</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L24" t="n">
-        <v>0.003845884095942359</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03395727098222449</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N24" t="n">
-        <v>1.003294127408294</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03540290230917924</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P24" t="n">
-        <v>79.53060912215042</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.753511342801</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_1</t>
+          <t>model_15_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9987402017506689</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9986197396271468</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9988935051810331</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9993265943717553</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9996017156462434</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001175966366998577</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001288412471630387</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001501774379703944</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0007991368318723981</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0004746571349213962</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003883399455706582</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03429236601633922</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N25" t="n">
-        <v>1.003359461998216</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03575226303263857</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P25" t="n">
-        <v>79.49133005881136</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q25" t="n">
-        <v>119.714232279462</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_15_9_0</t>
+          <t>model_15_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.99871520232526</v>
+        <v>0.9999384042336427</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9986014363269173</v>
+        <v>0.9989769827010289</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9988733875437829</v>
+        <v>0.999968874408921</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9993154042007497</v>
+        <v>0.9997505669331505</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9995949986920424</v>
+        <v>0.9999232107551697</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001199302233269802</v>
+        <v>5.749694415287543e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001305497798972527</v>
+        <v>0.0009549417433199923</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001529078757171195</v>
+        <v>5.98196697030061e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.000812416313703893</v>
+        <v>0.0001492298129745876</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004826620947105062</v>
+        <v>0.0001045247413387968</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003921278786639964</v>
+        <v>0.0005240253855816831</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03463094329165468</v>
+        <v>0.007582673944781975</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00342612713264</v>
+        <v>1.000164255376953</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03610525424351579</v>
+        <v>0.007905484072910305</v>
       </c>
       <c r="P26" t="n">
-        <v>79.45203072716782</v>
+        <v>85.52755751348121</v>
       </c>
       <c r="Q26" t="n">
-        <v>119.6749329478184</v>
+        <v>125.7504597341318</v>
       </c>
     </row>
   </sheetData>
